--- a/rider/weekly/2017_21.xlsx
+++ b/rider/weekly/2017_21.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>193</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>185</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>203</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>237</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>142</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>225.32</c:v>
+                  <c:v>226.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213.77</c:v>
+                  <c:v>218.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>226.5</c:v>
+                  <c:v>216.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235.48</c:v>
+                  <c:v>234.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>238.23</c:v>
+                  <c:v>238.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.03</c:v>
+                  <c:v>114.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.90000000000001</c:v>
+                  <c:v>91.06999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D2">
-        <v>225.32</v>
+        <v>226.04</v>
       </c>
       <c r="E2">
         <v>121.11</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D3">
-        <v>213.77</v>
+        <v>218.83</v>
       </c>
       <c r="E3">
         <v>121.27</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D4">
-        <v>226.5</v>
+        <v>216.27</v>
       </c>
       <c r="E4">
         <v>121.43</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="D5">
-        <v>235.48</v>
+        <v>234.86</v>
       </c>
       <c r="E5">
         <v>121.6</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D6">
-        <v>238.23</v>
+        <v>238.6</v>
       </c>
       <c r="E6">
         <v>121.76</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D7">
-        <v>113.03</v>
+        <v>114.06</v>
       </c>
       <c r="E7">
         <v>121.92</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D8">
-        <v>90.90000000000001</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="E8">
         <v>122.08</v>
